--- a/experiment_10/results.xlsx
+++ b/experiment_10/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,204 +488,238 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1_tr_phrase_countvectorizer.xlsx</t>
+          <t>0_tfidf_phrase_cv.xlsx</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.317515</v>
+        <v>0.319525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2222</v>
+        <v>0.2236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2614410679710588</v>
+        <v>0.2630915166858458</v>
       </c>
       <c r="E2" t="n">
-        <v>0.189272</v>
+        <v>0.200984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2648</v>
+        <v>0.2812000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2207545305590303</v>
+        <v>0.2344196439533456</v>
       </c>
       <c r="H2" t="n">
-        <v>0.116116</v>
+        <v>0.132704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.270617</v>
+        <v>0.3092810000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1625046922398657</v>
+        <v>0.1857204467300926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2_tr_phrase_pos_pattern.xlsx</t>
+          <t>1_tr_phrase_countvectorizer.xlsx</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.190419</v>
+        <v>0.317515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1332</v>
+        <v>0.2222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1567510609698441</v>
+        <v>0.2614410679710588</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09895499999999999</v>
+        <v>0.189272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1384</v>
+        <v>0.2648</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1153999030987339</v>
+        <v>0.2207545305590303</v>
       </c>
       <c r="H3" t="n">
-        <v>0.061061</v>
+        <v>0.116116</v>
       </c>
       <c r="I3" t="n">
-        <v>0.142264</v>
+        <v>0.270617</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08544726033689905</v>
+        <v>0.1625046922398657</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3_tr_posfilter.xlsx</t>
+          <t>2_tr_phrase_pos_pattern.xlsx</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.18086</v>
+        <v>0.190419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1265</v>
+        <v>0.1332</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1488729177511713</v>
+        <v>0.1567510609698441</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09824099999999998</v>
+        <v>0.09895499999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1374</v>
+        <v>0.1384</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1145667638483965</v>
+        <v>0.1153999030987339</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05862999999999999</v>
+        <v>0.061061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.13658</v>
+        <v>0.142264</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08204175400850365</v>
+        <v>0.08544726033689905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4_tr_posfilter_posisi.xlsx</t>
+          <t>3_tr_posfilter.xlsx</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.280425</v>
+        <v>0.18086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1962</v>
+        <v>0.1265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2308707474429583</v>
+        <v>0.1488729177511713</v>
       </c>
       <c r="E5" t="n">
-        <v>0.201867</v>
+        <v>0.09824099999999998</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2824</v>
+        <v>0.1374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2354372311142407</v>
+        <v>0.1145667638483965</v>
       </c>
       <c r="H5" t="n">
-        <v>0.138853</v>
+        <v>0.05862999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.323601</v>
+        <v>0.13658</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1943240610006617</v>
+        <v>0.08204175400850365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5_tr_weightscorephrases.xlsx</t>
+          <t>4_tr_posfilter_posisi.xlsx</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2629949999999999</v>
+        <v>0.280425</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184</v>
+        <v>0.1962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2165173212228324</v>
+        <v>0.2308707474429583</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1575649999999999</v>
+        <v>0.201867</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2204</v>
+        <v>0.2824</v>
       </c>
       <c r="G6" t="n">
-        <v>0.183759480375167</v>
+        <v>0.2354372311142407</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1001</v>
+        <v>0.138853</v>
       </c>
       <c r="I6" t="n">
-        <v>0.233253</v>
+        <v>0.323601</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1400834868742744</v>
+        <v>0.1943240610006617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>5_tr_weightscorephrases.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2629949999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2165173212228324</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1575649999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2204</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.183759480375167</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.233253</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1400834868742744</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>6_tr_tfidfscore.xlsx</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>0.2637059999999999</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>0.1845</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.2171044430462778</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>0.158563</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>0.2218</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>0.1849247871112595</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>0.100672</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>0.234586</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>0.1408839866132948</v>
       </c>
     </row>
